--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/metadata-only.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/metadata-only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B217855-D0AA-462C-A260-5C5F0B3EAEBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454A9D0C-4DA3-4745-BE54-DB17F55DADAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/metadata-only.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/metadata-only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454A9D0C-4DA3-4745-BE54-DB17F55DADAF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCC9BF5-96FC-42E7-BE5D-BD67C8D8AE43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
     <t/>
   </si>
@@ -217,18 +217,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>image:image</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"18x24y1z5t1c8b-text"@en</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixelType:uint8</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -244,10 +236,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -325,6 +313,34 @@
   </si>
   <si>
     <t>2010-03-02T10:01:15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/metadata-only/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/metadata-only/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>image:image0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -725,7 +741,7 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -802,7 +818,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>42</v>
@@ -818,7 +834,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>53</v>
@@ -830,6 +846,22 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +880,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
@@ -873,7 +905,7 @@
         <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -903,7 +935,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -923,24 +955,24 @@
         <v>25</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -964,7 +996,7 @@
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
@@ -980,7 +1012,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
@@ -1001,10 +1033,10 @@
         <v>30</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -1032,7 +1064,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>44</v>
@@ -1053,10 +1085,10 @@
         <v>49</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -1091,21 +1123,21 @@
         <v>20</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>54</v>
@@ -1126,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="L5" s="1" t="b">
         <v>1</v>
@@ -1148,7 +1180,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
@@ -1159,13 +1191,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1185,7 +1217,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1193,24 +1225,24 @@
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1238,10 +1270,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1257,7 +1289,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1265,7 +1297,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>40</v>
@@ -1273,7 +1305,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/metadata-only.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/metadata-only.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCC9BF5-96FC-42E7-BE5D-BD67C8D8AE43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C8EC60-90A7-4DFD-918E-704287B4F4CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" tabRatio="622" xr2:uid="{54B537C7-2841-4F36-B329-9186FD2FF737}"/>
   </bookViews>
@@ -31,9 +31,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -94,21 +91,12 @@
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
     <t>pixels</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -170,42 +158,6 @@
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/DimensionOrder#</t>
   </si>
   <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/AcquisitionMode#</t>
   </si>
   <si>
@@ -228,29 +180,12 @@
     <t>channel</t>
   </si>
   <si>
-    <t>:channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
     <t>[color:-2147483648]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -259,10 +194,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:metadataOnly</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:boolean</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -275,10 +206,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixel type</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -306,9 +233,6 @@
     <t>acquisition date</t>
   </si>
   <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -341,6 +265,90 @@
   </si>
   <si>
     <t>channel:channel0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:metadataOnly</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -754,114 +762,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -883,96 +891,96 @@
     <col min="2" max="2" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -991,57 +999,57 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1057,90 +1065,90 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1158,7 +1166,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="L5" s="1" t="b">
         <v>1</v>
@@ -1188,21 +1196,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1210,39 +1218,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1267,45 +1275,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
